--- a/ksy/ERD/looker ecommerce detail.xlsx
+++ b/ksy/ERD/looker ecommerce detail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Four-A\ksy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Four-A\ksy\ERD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F2C53B-6BF7-42C7-AD18-E566428019A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0675F913-F33B-4A53-8C4B-309D58936876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11205" yWindow="2220" windowWidth="20910" windowHeight="11385" xr2:uid="{EC8F0A58-2205-40C0-A271-40118643CC96}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{EC8F0A58-2205-40C0-A271-40118643CC96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="142">
   <si>
     <t>Description(설명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,19 +149,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>events</t>
-  </si>
-  <si>
-    <t>inventory_items</t>
-  </si>
-  <si>
     <t>order_items</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>users</t>
   </si>
   <si>
     <t>id</t>
@@ -647,6 +635,74 @@
   <si>
     <t>user의 트래픽의 소스, 해당 사이트내지 서비스에 가입하게된 경로로 events의 것과 다름 
 ('Search', 'Email', 'Organic', 'Display', 'Facebook')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼명 원본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory_items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>products</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_center_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_center_latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution_center_longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_created_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_traffic_source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory_item_created_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory_item_sold_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_traffic_source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_created_at</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +710,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,12 +734,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1022,6 +1072,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,15 +1133,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1486,11 +1536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F30573-26AE-4C81-9B4C-07F9D3AAE177}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1498,9 +1548,10 @@
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1510,676 +1561,788 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="B4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="53"/>
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="53"/>
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="4" t="s">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="53"/>
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="53"/>
+      <c r="B10" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
-      <c r="B5" s="6" t="s">
+      <c r="D10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="53"/>
+      <c r="B12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="53"/>
+      <c r="B13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="53"/>
+      <c r="B14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="53"/>
+      <c r="B15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="54"/>
+      <c r="B18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="56"/>
+      <c r="B20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="56"/>
+      <c r="B21" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="56"/>
+      <c r="B22" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="56"/>
+      <c r="B23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="56"/>
+      <c r="B24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="56"/>
+      <c r="B25" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="56"/>
+      <c r="B26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="56"/>
+      <c r="B27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="56"/>
+      <c r="B28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="56"/>
+      <c r="B29" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="57"/>
+      <c r="B30" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="20"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="59"/>
+      <c r="B32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="59"/>
+      <c r="B33" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="59"/>
+      <c r="B34" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="59"/>
+      <c r="B35" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="22"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="59"/>
+      <c r="B36" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="22"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="59"/>
+      <c r="B37" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="22"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="59"/>
+      <c r="B38" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="22"/>
+    </row>
+    <row r="39" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="60"/>
+      <c r="B39" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="24"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B40" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="62"/>
+      <c r="B41" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="28"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="62"/>
+      <c r="B42" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="10" t="s">
+      <c r="C42" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="28"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="62"/>
+      <c r="B43" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="10" t="s">
+      <c r="C43" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="28"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="62"/>
+      <c r="B44" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="28"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="62"/>
+      <c r="B45" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="28"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="62"/>
+      <c r="B46" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="28"/>
+    </row>
+    <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47" s="62"/>
+      <c r="B47" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="28"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="62"/>
+      <c r="B48" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="62"/>
+      <c r="B49" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="28"/>
+    </row>
+    <row r="50" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="63"/>
+      <c r="B50" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="65"/>
+      <c r="B52" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
-      <c r="B18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="16" t="s">
+      <c r="C52" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="65"/>
+      <c r="B53" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="34"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="65"/>
+      <c r="B54" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="C54" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="65"/>
+      <c r="B55" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="34"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="65"/>
+      <c r="B56" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="35" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
-      <c r="B25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
-      <c r="B26" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="17" t="s">
+      <c r="D56" s="34"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="65"/>
+      <c r="B57" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="34"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="65"/>
+      <c r="B58" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="35" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="17" t="s">
+      <c r="D58" s="34"/>
+    </row>
+    <row r="59" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="66"/>
+      <c r="B59" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="37" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="54"/>
-      <c r="B30" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="56"/>
-      <c r="B32" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="56"/>
-      <c r="B33" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="56"/>
-      <c r="B34" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="56"/>
-      <c r="B35" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="56"/>
-      <c r="B36" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="56"/>
-      <c r="B37" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="56"/>
-      <c r="B38" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="57"/>
-      <c r="B39" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
-      <c r="B42" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
-      <c r="B43" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
-      <c r="B45" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
-      <c r="B46" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
-      <c r="B47" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
-      <c r="B48" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="60"/>
-      <c r="B50" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="62"/>
-      <c r="B52" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="62"/>
-      <c r="B53" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="62"/>
-      <c r="B54" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="62"/>
-      <c r="B55" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="62"/>
-      <c r="B56" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="62"/>
-      <c r="B57" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="62"/>
-      <c r="B58" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="63"/>
-      <c r="B59" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="64" t="s">
-        <v>7</v>
+      <c r="D59" s="36"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="B60" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="47"/>
+      <c r="B61" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="40"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="47"/>
+      <c r="B62" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="40"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="47"/>
+      <c r="B63" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" s="40"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="47"/>
+      <c r="B64" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="41" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="65"/>
-      <c r="B61" s="40" t="s">
+      <c r="D64" s="40"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="47"/>
+      <c r="B65" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="40"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="47"/>
+      <c r="B66" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="40"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="47"/>
+      <c r="B67" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="65"/>
-      <c r="B62" s="40" t="s">
+      <c r="C67" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="40"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="47"/>
+      <c r="B68" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="40"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="47"/>
+      <c r="B69" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="40"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="47"/>
+      <c r="B70" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="65"/>
-      <c r="B63" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" s="41" t="s">
+      <c r="C70" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="40"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="47"/>
+      <c r="B71" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="47"/>
+      <c r="B72" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A73" s="47"/>
+      <c r="B73" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="48"/>
+      <c r="B74" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="43" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="65"/>
-      <c r="B64" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="65"/>
-      <c r="B65" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="65"/>
-      <c r="B66" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="65"/>
-      <c r="B67" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C67" s="41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="65"/>
-      <c r="B68" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="65"/>
-      <c r="B69" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="65"/>
-      <c r="B70" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" s="41" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="65"/>
-      <c r="B71" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="65"/>
-      <c r="B72" s="40" t="s">
+      <c r="D74" s="42" t="s">
         <v>11</v>
-      </c>
-      <c r="C72" s="41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A73" s="65"/>
-      <c r="B73" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C73" s="45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="66"/>
-      <c r="B74" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="43" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2194,6 +2357,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ksy/ERD/looker ecommerce detail.xlsx
+++ b/ksy/ERD/looker ecommerce detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Four-A\ksy\ERD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0675F913-F33B-4A53-8C4B-309D58936876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2CDF23-10B7-462D-9AAF-F56FF99C24D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{EC8F0A58-2205-40C0-A271-40118643CC96}"/>
   </bookViews>
@@ -40,6 +40,7 @@
   <authors>
     <author>tc={30622C9B-B8D9-42D2-A89D-7D194AB9DBA0}</author>
     <author>tc={806AAC5C-B184-49B1-8907-2CF771DE5152}</author>
+    <author>tc={1BBE2307-92DF-4526-9210-34BA6E5D9DC8}</author>
     <author>tc={17262650-3A90-49B4-B0FB-09EABBD94856}</author>
     <author>tc={0F628AA7-8386-4457-B0B7-2EB6C4312A94}</author>
     <author>tc={8A5EEBCD-8523-4979-B344-176A1BEE84B1}</author>
@@ -55,7 +56,7 @@
     배송 센터의 뜻으로, 배송 센터는 제조업체의 상품을 일시적으로 보관하는 창고와 그곳에서 운영되는 사업을 의미 </t>
       </text>
     </comment>
-    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{806AAC5C-B184-49B1-8907-2CF771DE5152}">
+    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{806AAC5C-B184-49B1-8907-2CF771DE5152}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -72,7 +73,15 @@
 Savannah GA: 서배너 조지아 주(Georgia)</t>
       </text>
     </comment>
-    <comment ref="C17" authorId="2" shapeId="0" xr:uid="{17262650-3A90-49B4-B0FB-09EABBD94856}">
+    <comment ref="C9" authorId="2" shapeId="0" xr:uid="{1BBE2307-92DF-4526-9210-34BA6E5D9DC8}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    Access_count</t>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="3" shapeId="0" xr:uid="{17262650-3A90-49B4-B0FB-09EABBD94856}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -94,7 +103,7 @@
 더 궁금한 점이 있으시면 언제든지 질문해 주세요! 😄</t>
       </text>
     </comment>
-    <comment ref="A31" authorId="3" shapeId="0" xr:uid="{0F628AA7-8386-4457-B0B7-2EB6C4312A94}">
+    <comment ref="A31" authorId="4" shapeId="0" xr:uid="{0F628AA7-8386-4457-B0B7-2EB6C4312A94}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -102,7 +111,7 @@
     살짝 order_items를 일정 시간마다 집계한 느낌?</t>
       </text>
     </comment>
-    <comment ref="C39" authorId="4" shapeId="0" xr:uid="{8A5EEBCD-8523-4979-B344-176A1BEE84B1}">
+    <comment ref="D39" authorId="5" shapeId="0" xr:uid="{8A5EEBCD-8523-4979-B344-176A1BEE84B1}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -113,7 +122,7 @@
 comparison_result.sum()</t>
       </text>
     </comment>
-    <comment ref="C50" authorId="5" shapeId="0" xr:uid="{65523E5B-CB45-4994-8CB8-2C84E4CD9FC5}">
+    <comment ref="D50" authorId="6" shapeId="0" xr:uid="{65523E5B-CB45-4994-8CB8-2C84E4CD9FC5}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -121,7 +130,7 @@
     (order_items.merge(inventory_items, on='product_id')['sale_price']!=order_items.merge(inventory_items, on='product_id')['product_retail_price']).sum()</t>
       </text>
     </comment>
-    <comment ref="C73" authorId="6" shapeId="0" xr:uid="{4934F4FD-77B3-441A-BB57-1E7566505205}">
+    <comment ref="D73" authorId="7" shapeId="0" xr:uid="{4934F4FD-77B3-441A-BB57-1E7566505205}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -135,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="147">
   <si>
     <t>Description(설명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -703,6 +712,26 @@
   </si>
   <si>
     <t>user_created_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅁ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+RFM, CLV?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ, count로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,7 +739,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,6 +763,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -787,12 +822,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDBBFA"/>
+        <fgColor rgb="FFBBE9FB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -927,13 +962,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1048,30 +1122,30 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1134,6 +1208,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1143,6 +1283,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFBBE9FB"/>
       <color rgb="FFFDBBFA"/>
       <color rgb="FFCBC4FC"/>
       <color rgb="FF66FFCC"/>
@@ -1486,7 +1627,7 @@
   <threadedComment ref="A2" dT="2024-04-03T06:45:41.13" personId="{7F4D47AF-FE92-4E76-8423-90226EC2F4ED}" id="{30622C9B-B8D9-42D2-A89D-7D194AB9DBA0}">
     <text xml:space="preserve">배송 센터의 뜻으로, 배송 센터는 제조업체의 상품을 일시적으로 보관하는 창고와 그곳에서 운영되는 사업을 의미 </text>
   </threadedComment>
-  <threadedComment ref="C3" dT="2024-04-03T06:55:25.58" personId="{7F4D47AF-FE92-4E76-8423-90226EC2F4ED}" id="{806AAC5C-B184-49B1-8907-2CF771DE5152}">
+  <threadedComment ref="D3" dT="2024-04-03T06:55:25.58" personId="{7F4D47AF-FE92-4E76-8423-90226EC2F4ED}" id="{806AAC5C-B184-49B1-8907-2CF771DE5152}">
     <text>Memphis TN: 멤피스 테네시 주(Tennessee)
 Chicago IL: 시카고 일리노이 주(Illinois)
 Houston TX: 휴스턴 텍사스 주(Texas)
@@ -1498,7 +1639,10 @@
 Charleston SC: 찰스턴 사우스캐롤라이나 주(South Carolina)
 Savannah GA: 서배너 조지아 주(Georgia)</text>
   </threadedComment>
-  <threadedComment ref="C17" dT="2024-04-03T07:29:03.92" personId="{7F4D47AF-FE92-4E76-8423-90226EC2F4ED}" id="{17262650-3A90-49B4-B0FB-09EABBD94856}">
+  <threadedComment ref="C9" dT="2024-04-12T09:05:12.59" personId="{7F4D47AF-FE92-4E76-8423-90226EC2F4ED}" id="{1BBE2307-92DF-4526-9210-34BA6E5D9DC8}">
+    <text>Access_count</text>
+  </threadedComment>
+  <threadedComment ref="D17" dT="2024-04-03T07:29:03.92" personId="{7F4D47AF-FE92-4E76-8423-90226EC2F4ED}" id="{17262650-3A90-49B4-B0FB-09EABBD94856}">
     <text>**events 로그 테이블의 URI (Uniform Resource Identifier)에 대한 설명**
 URI(Uniform Resource Identifier)는 인터넷에서 자원을 식별하는 데 사용되는 문자열의 구조입니다. events 로그 테이블에서 URI는 특정 이벤트와 관련된 자원을 나타내며, 이는 웹 페이지, 이미지, 비디오 파일 등 다양한 형태의 자원을 포함할 수 있습니다.
 ---
@@ -1518,16 +1662,16 @@
   <threadedComment ref="A31" dT="2024-04-03T07:38:05.71" personId="{7F4D47AF-FE92-4E76-8423-90226EC2F4ED}" id="{0F628AA7-8386-4457-B0B7-2EB6C4312A94}">
     <text>살짝 order_items를 일정 시간마다 집계한 느낌?</text>
   </threadedComment>
-  <threadedComment ref="C39" dT="2024-04-03T07:59:32.69" personId="{7F4D47AF-FE92-4E76-8423-90226EC2F4ED}" id="{8A5EEBCD-8523-4979-B344-176A1BEE84B1}">
+  <threadedComment ref="D39" dT="2024-04-03T07:59:32.69" personId="{7F4D47AF-FE92-4E76-8423-90226EC2F4ED}" id="{8A5EEBCD-8523-4979-B344-176A1BEE84B1}">
     <text>order_items_count = order_items.groupby('order_id')['product_id'].count().reset_index(name='item_count')
 merged_orders = pd.merge(orders, order_items_count, on='order_id')
 comparison_result = merged_orders['num_of_item'] != merged_orders['item_count']
 comparison_result.sum()</text>
   </threadedComment>
-  <threadedComment ref="C50" dT="2024-04-03T08:14:14.89" personId="{7F4D47AF-FE92-4E76-8423-90226EC2F4ED}" id="{65523E5B-CB45-4994-8CB8-2C84E4CD9FC5}">
+  <threadedComment ref="D50" dT="2024-04-03T08:14:14.89" personId="{7F4D47AF-FE92-4E76-8423-90226EC2F4ED}" id="{65523E5B-CB45-4994-8CB8-2C84E4CD9FC5}">
     <text>(order_items.merge(inventory_items, on='product_id')['sale_price']!=order_items.merge(inventory_items, on='product_id')['product_retail_price']).sum()</text>
   </threadedComment>
-  <threadedComment ref="C73" dT="2024-04-03T08:33:10.47" personId="{7F4D47AF-FE92-4E76-8423-90226EC2F4ED}" id="{4934F4FD-77B3-441A-BB57-1E7566505205}">
+  <threadedComment ref="D73" dT="2024-04-03T08:33:10.47" personId="{7F4D47AF-FE92-4E76-8423-90226EC2F4ED}" id="{4934F4FD-77B3-441A-BB57-1E7566505205}">
     <text>pd.set_option('display.max_columns', None)
 events.merge(users, left_on='user_id', right_on='id')[['user_id','traffic_source_x','traffic_source_y']]</text>
   </threadedComment>
@@ -1536,22 +1680,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F30573-26AE-4C81-9B4C-07F9D3AAE177}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" customWidth="1"/>
+    <col min="4" max="4" width="100.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1559,790 +1704,899 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="50"/>
       <c r="B3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51"/>
       <c r="B5" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
         <v>125</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="70"/>
+      <c r="D6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="53"/>
       <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="53"/>
       <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="53"/>
       <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="53"/>
       <c r="B10" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="53"/>
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="71"/>
+      <c r="D11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="53"/>
       <c r="B12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="53"/>
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="71"/>
+      <c r="D13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="53"/>
       <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="71"/>
+      <c r="D14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="53"/>
       <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="71"/>
+      <c r="D15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="53"/>
       <c r="B16" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="53"/>
       <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="71"/>
+      <c r="D17" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="54"/>
       <c r="B18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="72"/>
+      <c r="D18" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="55" t="s">
         <v>127</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="73"/>
+      <c r="D19" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="56"/>
       <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="74"/>
+      <c r="D20" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="56"/>
       <c r="B21" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="74"/>
+      <c r="D21" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="E21" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="56"/>
       <c r="B22" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="74"/>
+      <c r="D22" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
       <c r="B23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="74"/>
+      <c r="D23" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="56"/>
       <c r="B24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="74"/>
+      <c r="D24" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="56"/>
       <c r="B25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="74"/>
+      <c r="D25" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="56"/>
       <c r="B26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="74"/>
+      <c r="D26" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="56"/>
       <c r="B27" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="74"/>
+      <c r="D27" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="56"/>
       <c r="B28" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="74"/>
+      <c r="D28" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="16"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="56"/>
       <c r="B29" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="74"/>
+      <c r="D29" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="57"/>
       <c r="B30" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="75"/>
+      <c r="D30" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="58" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="76"/>
+      <c r="D31" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="20"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="59"/>
       <c r="B32" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="77"/>
+      <c r="D32" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="22"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="59"/>
       <c r="B33" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="77"/>
+      <c r="D33" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="22"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="59"/>
       <c r="B34" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="77"/>
+      <c r="D34" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="59"/>
       <c r="B35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="77"/>
+      <c r="D35" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="22"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="59"/>
       <c r="B36" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="77"/>
+      <c r="D36" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="22"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="59"/>
       <c r="B37" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="77"/>
+      <c r="D37" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="22"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="59"/>
       <c r="B38" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="77"/>
+      <c r="D38" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="22"/>
-    </row>
-    <row r="39" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="60"/>
       <c r="B39" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="78"/>
+      <c r="D39" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="24"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="61" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="79"/>
+      <c r="D40" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="E40" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="62"/>
       <c r="B41" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="80"/>
+      <c r="D41" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="28"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" s="28"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="62"/>
       <c r="B42" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="80"/>
+      <c r="D42" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="28"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="62"/>
       <c r="B43" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="28"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" s="28"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="62"/>
       <c r="B44" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="80"/>
+      <c r="D44" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="28"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" s="28"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="62"/>
       <c r="B45" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="80"/>
+      <c r="D45" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="28"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" s="28"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="62"/>
       <c r="B46" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="28"/>
-    </row>
-    <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="E46" s="28"/>
+    </row>
+    <row r="47" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="62"/>
       <c r="B47" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="80"/>
+      <c r="D47" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="28"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="62"/>
       <c r="B48" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="80"/>
+      <c r="D48" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="28"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" s="28"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="62"/>
       <c r="B49" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="80"/>
+      <c r="D49" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="28"/>
-    </row>
-    <row r="50" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E49" s="28"/>
+    </row>
+    <row r="50" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="63"/>
       <c r="B50" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="81"/>
+      <c r="D50" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="30"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="30"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="64" t="s">
         <v>128</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="82"/>
+      <c r="D51" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="E51" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="65"/>
       <c r="B52" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="83"/>
+      <c r="D52" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="34"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" s="34"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="65"/>
       <c r="B53" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D53" s="34"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" s="34"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="65"/>
       <c r="B54" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="83"/>
+      <c r="D54" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="E54" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="65"/>
       <c r="B55" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="34"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" s="34"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="65"/>
       <c r="B56" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="83"/>
+      <c r="D56" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="34"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" s="34"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="65"/>
       <c r="B57" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="34"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" s="34"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="65"/>
       <c r="B58" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="34"/>
-    </row>
-    <row r="59" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E58" s="34"/>
+    </row>
+    <row r="59" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="66"/>
       <c r="B59" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="36"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" s="36"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="85"/>
+      <c r="D60" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="E60" s="39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="47"/>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="86"/>
+      <c r="D61" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="40"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" s="41"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="47"/>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="86"/>
+      <c r="D62" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="D62" s="40"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" s="41"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="47"/>
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="41" t="s">
+      <c r="C63" s="86"/>
+      <c r="D63" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="D63" s="40"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" s="41"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="47"/>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="40"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" s="41"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="47"/>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="41" t="s">
+      <c r="C65" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="D65" s="40"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" s="41"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="47"/>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C66" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="D66" s="40"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" s="41"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="47"/>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="C67" s="86"/>
+      <c r="D67" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="40"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" s="41"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="47"/>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="86"/>
+      <c r="D68" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D68" s="40"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" s="41"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="47"/>
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="41" t="s">
+      <c r="C69" s="86"/>
+      <c r="D69" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="40"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" s="41"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="47"/>
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="41" t="s">
+      <c r="C70" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="40"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" s="41"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="47"/>
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="86"/>
+      <c r="D71" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="D71" s="40" t="s">
+      <c r="E71" s="41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="47"/>
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C72" s="41" t="s">
+      <c r="C72" s="86"/>
+      <c r="D72" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D72" s="40" t="s">
+      <c r="E72" s="41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="47"/>
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="45" t="s">
+      <c r="C73" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="D73" s="40" t="s">
+      <c r="E73" s="41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="48"/>
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="43" t="s">
+      <c r="C74" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="D74" s="42" t="s">
+      <c r="E74" s="44" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C75" s="88" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
